--- a/Luban/Config/Datas/__beans__.xlsx
+++ b/Luban/Config/Datas/__beans__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Return0\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Game\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2D451F-A70F-4DA8-B965-1E515D879CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CED1BA5-145D-4A2A-A51A-77EF43ACA4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -99,191 +99,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>交互物品ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>InteractionItemID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置X</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SceneInteractionItemData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>##</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Position</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地板坐标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>X1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>X2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SceneFloorPosition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景交互物品数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScenePassageData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景通道数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PassageID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeatherPoolInGroupData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>天气组中的天气池子数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SeasonID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>季候ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>天气池ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeatherPoolData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>天气池数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>权重</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinContinue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxContinue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小持续时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大持续时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Weight</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PasserbyInSceneData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>路人所在场景数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SceneID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimePeriod</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>路人表时间段(参数格式为-1|x（每日|概率百分比）或日期类型id|x（指定类型的日期|概率百分比），可同时存在多个参数，逗号相隔，仅从满足的中选概率最高的进行触发判定)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Probability</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeatherPoolID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeatherID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>天气类ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>概率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -690,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -717,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -807,308 +627,34 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K6" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="K29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M29" s="2" t="s">
         <v>23</v>
       </c>
     </row>
